--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -75,12 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -89,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,7 +460,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,189 +468,675 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BIL</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>BNDX</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>48.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>EGIS</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>34.5684</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>EPP</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>45.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>EWC</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>EWD</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>EWJ</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>EWL</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>44.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>EWU</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>EZU</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>48.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>34.5684</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>45.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>35.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>58.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>44.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>32.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="20.25" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>2023-2-11</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>43.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>FUTY</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>44.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>GIBIX</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>no_data,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>GOVT</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>HYLB</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>IAT</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>no_data,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>IVV</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>409.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>190.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>IXUS</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>LYFE</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>31.7852</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ONLN</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PAVE</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>no_data,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>299.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SKYY</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>SMH</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>no_data,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SRVR</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>STIP</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>UPST</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>USHY</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>no_data,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>USIG</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>no_data,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>VCIT</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>VCSH</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n"/>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>VGSH</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n"/>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>VMBS</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="n"/>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>VNLA</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>47.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>VTV</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="n"/>
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>143.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-2-11</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>XTN</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>77.52</t>
         </is>
       </c>
     </row>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -438,7 +438,7 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -467,14 +467,14 @@
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>{"c":[53.67]}</t>
+          <t>{"c":[54.23]}</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -485,14 +485,14 @@
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>{"c":[33.7591]}</t>
+          <t>{"c":[33.375]}</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -503,14 +503,14 @@
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>{"c":[46.64]}</t>
+          <t>{"c":[46.03]}</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -521,14 +521,14 @@
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>{"c":[38.22]}</t>
+          <t>{"c":[37.7]}</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -539,14 +539,14 @@
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>{"c":[37.82]}</t>
+          <t>{"c":[36.36]}</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -557,14 +557,14 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>{"c":[62.94]}</t>
+          <t>{"c":[62.08]}</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -575,14 +575,14 @@
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>{"c":[47.94]}</t>
+          <t>{"c":[47.42]}</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -593,14 +593,14 @@
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>{"c":[33.49]}</t>
+          <t>{"c":[33.01]}</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -611,14 +611,14 @@
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>{"c":[43.88]}</t>
+          <t>{"c":[42.15]}</t>
         </is>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -629,14 +629,14 @@
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>{"c":[43.93]}</t>
+          <t>{"c":[43.54]}</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -665,14 +665,14 @@
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>{"c":[25.76]}</t>
+          <t>{"c":[25.93]}</t>
         </is>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -683,14 +683,14 @@
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>{"c":[38.32]}</t>
+          <t>{"c":[38.02]}</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -719,14 +719,14 @@
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>{"c":[438.72]}</t>
+          <t>{"c":[431.92]}</t>
         </is>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -737,14 +737,14 @@
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>{"c":[203.32]}</t>
+          <t>{"c":[199.49]}</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -755,14 +755,14 @@
       <c r="C18" s="3" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>{"c":[66.75]}</t>
+          <t>{"c":[65.54]}</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -773,14 +773,14 @@
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>{"c":[31.8771]}</t>
+          <t>{"c":[31.4019]}</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -791,14 +791,14 @@
       <c r="C20" s="3" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>{"c":[47.54]}</t>
+          <t>{"c":[46.42]}</t>
         </is>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -827,14 +827,14 @@
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>{"c":[346.8]}</t>
+          <t>{"c":[341.49]}</t>
         </is>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -845,14 +845,14 @@
       <c r="C23" s="3" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>{"c":[86.61]}</t>
+          <t>{"c":[85.87]}</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -881,14 +881,14 @@
       <c r="C25" s="3" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>{"c":[36.4717]}</t>
+          <t>{"c":[36.54]}</t>
         </is>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -899,14 +899,14 @@
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>{"c":[105.94]}</t>
+          <t>{"c":[106.3]}</t>
         </is>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -917,14 +917,14 @@
       <c r="C27" s="3" t="n"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>{"c":[36.03]}</t>
+          <t>{"c":[33.89]}</t>
         </is>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -935,14 +935,14 @@
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>{"c":[157.99]}</t>
+          <t>{"c":[145.4]}</t>
         </is>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="31" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -989,14 +989,14 @@
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>{"c":[88.97]}</t>
+          <t>{"c":[89.19]}</t>
         </is>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1007,14 +1007,14 @@
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>{"c":[79.63]}</t>
+          <t>{"c":[79.7]}</t>
         </is>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1025,14 +1025,14 @@
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>{"c":[60.13]}</t>
+          <t>{"c":[60.23]}</t>
         </is>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1043,14 +1043,14 @@
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>{"c":[51.44]}</t>
+          <t>{"c":[51.64]}</t>
         </is>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1061,14 +1061,14 @@
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>{"c":[49.3]}</t>
+          <t>{"c":[49.25]}</t>
         </is>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1079,14 +1079,14 @@
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>{"c":[143.85]}</t>
+          <t>{"c":[141.69]}</t>
         </is>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2023-2-27</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1097,7 +1097,7 @@
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>{"c":[87.86]}</t>
+          <t>{"c":[85.82]}</t>
         </is>
       </c>
     </row>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -449,7 +449,8 @@
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>{"c":[91.41]}</t>
+          <t xml:space="preserve">91.41
+</t>
         </is>
       </c>
     </row>
@@ -467,7 +468,8 @@
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>{"c":[54.23]}</t>
+          <t xml:space="preserve">54.23
+</t>
         </is>
       </c>
     </row>
@@ -485,7 +487,8 @@
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>{"c":[33.375]}</t>
+          <t xml:space="preserve">33.375
+</t>
         </is>
       </c>
     </row>
@@ -503,7 +506,8 @@
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>{"c":[46.03]}</t>
+          <t xml:space="preserve">46.03
+</t>
         </is>
       </c>
     </row>
@@ -521,7 +525,8 @@
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>{"c":[37.7]}</t>
+          <t xml:space="preserve">37.7
+</t>
         </is>
       </c>
     </row>
@@ -539,7 +544,8 @@
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>{"c":[36.36]}</t>
+          <t xml:space="preserve">36.36
+</t>
         </is>
       </c>
     </row>
@@ -557,7 +563,8 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>{"c":[62.08]}</t>
+          <t xml:space="preserve">62.08
+</t>
         </is>
       </c>
     </row>
@@ -575,7 +582,8 @@
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>{"c":[47.42]}</t>
+          <t xml:space="preserve">47.42
+</t>
         </is>
       </c>
     </row>
@@ -593,7 +601,8 @@
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>{"c":[33.01]}</t>
+          <t xml:space="preserve">33.01
+</t>
         </is>
       </c>
     </row>
@@ -611,7 +620,8 @@
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>{"c":[42.15]}</t>
+          <t xml:space="preserve">42.15
+</t>
         </is>
       </c>
     </row>
@@ -629,7 +639,8 @@
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>{"c":[43.54]}</t>
+          <t xml:space="preserve">43.54
+</t>
         </is>
       </c>
     </row>
@@ -647,7 +658,8 @@
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>{"s":"no_data","prevTime":null,"nextTime":null}</t>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
         </is>
       </c>
     </row>
@@ -665,7 +677,8 @@
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>{"c":[25.93]}</t>
+          <t xml:space="preserve">25.93
+</t>
         </is>
       </c>
     </row>
@@ -683,7 +696,8 @@
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>{"c":[38.02]}</t>
+          <t xml:space="preserve">38.02
+</t>
         </is>
       </c>
     </row>
@@ -701,7 +715,8 @@
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>{"s":"no_data","prevTime":null,"nextTime":null}</t>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
         </is>
       </c>
     </row>
@@ -719,7 +734,8 @@
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>{"c":[431.92]}</t>
+          <t xml:space="preserve">431.92
+</t>
         </is>
       </c>
     </row>
@@ -737,7 +753,8 @@
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>{"c":[199.49]}</t>
+          <t xml:space="preserve">199.49
+</t>
         </is>
       </c>
     </row>
@@ -755,7 +772,8 @@
       <c r="C18" s="3" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>{"c":[65.54]}</t>
+          <t xml:space="preserve">65.54
+</t>
         </is>
       </c>
     </row>
@@ -773,7 +791,8 @@
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>{"c":[31.4019]}</t>
+          <t xml:space="preserve">31.4019
+</t>
         </is>
       </c>
     </row>
@@ -791,7 +810,8 @@
       <c r="C20" s="3" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>{"c":[46.42]}</t>
+          <t xml:space="preserve">46.42
+</t>
         </is>
       </c>
     </row>
@@ -809,7 +829,8 @@
       <c r="C21" s="3" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>{"s":"no_data","prevTime":null,"nextTime":null}</t>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
         </is>
       </c>
     </row>
@@ -827,7 +848,8 @@
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>{"c":[341.49]}</t>
+          <t xml:space="preserve">341.49
+</t>
         </is>
       </c>
     </row>
@@ -845,7 +867,8 @@
       <c r="C23" s="3" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>{"c":[85.87]}</t>
+          <t xml:space="preserve">85.87
+</t>
         </is>
       </c>
     </row>
@@ -863,7 +886,8 @@
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>{"s":"no_data","prevTime":null,"nextTime":null}</t>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
         </is>
       </c>
     </row>
@@ -881,7 +905,8 @@
       <c r="C25" s="3" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>{"c":[36.54]}</t>
+          <t xml:space="preserve">36.54
+</t>
         </is>
       </c>
     </row>
@@ -899,7 +924,8 @@
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>{"c":[106.3]}</t>
+          <t xml:space="preserve">106.3
+</t>
         </is>
       </c>
     </row>
@@ -917,7 +943,8 @@
       <c r="C27" s="3" t="n"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>{"c":[33.89]}</t>
+          <t xml:space="preserve">33.89
+</t>
         </is>
       </c>
     </row>
@@ -935,7 +962,8 @@
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>{"c":[145.4]}</t>
+          <t xml:space="preserve">145.4
+</t>
         </is>
       </c>
     </row>
@@ -953,7 +981,8 @@
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>{"s":"no_data","prevTime":null,"nextTime":null}</t>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
         </is>
       </c>
     </row>
@@ -971,7 +1000,8 @@
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>{"s":"no_data","prevTime":null,"nextTime":null}</t>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
         </is>
       </c>
     </row>
@@ -989,7 +1019,8 @@
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>{"c":[89.19]}</t>
+          <t xml:space="preserve">89.19
+</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1038,8 @@
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>{"c":[79.7]}</t>
+          <t xml:space="preserve">79.7
+</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1057,8 @@
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>{"c":[60.23]}</t>
+          <t xml:space="preserve">60.23
+</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1076,8 @@
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>{"c":[51.64]}</t>
+          <t xml:space="preserve">51.64
+</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1095,8 @@
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>{"c":[49.25]}</t>
+          <t xml:space="preserve">49.25
+</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1114,8 @@
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>{"c":[141.69]}</t>
+          <t xml:space="preserve">141.69
+</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1133,8 @@
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>{"c":[85.82]}</t>
+          <t xml:space="preserve">85.82
+</t>
         </is>
       </c>
     </row>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -493,650 +493,208 @@
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>EPP</t>
-        </is>
-      </c>
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">46.03
-</t>
-        </is>
-      </c>
+      <c r="D4" s="3" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>EWC</t>
-        </is>
-      </c>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="n"/>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">37.7
-</t>
-        </is>
-      </c>
+      <c r="D5" s="3" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>EWD</t>
-        </is>
-      </c>
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">36.36
-</t>
-        </is>
-      </c>
+      <c r="D6" s="3" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>EWJ</t>
-        </is>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">62.08
-</t>
-        </is>
-      </c>
+      <c r="D7" s="3" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>EWL</t>
-        </is>
-      </c>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">47.42
-</t>
-        </is>
-      </c>
+      <c r="D8" s="3" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>EWU</t>
-        </is>
-      </c>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33.01
-</t>
-        </is>
-      </c>
+      <c r="D9" s="3" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>EZU</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">42.15
-</t>
-        </is>
-      </c>
+      <c r="D10" s="3" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>FUTY</t>
-        </is>
-      </c>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">43.54
-</t>
-        </is>
-      </c>
+      <c r="D11" s="3" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>GIBIX</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
-</t>
-        </is>
-      </c>
+      <c r="D12" s="3" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>GOVT</t>
-        </is>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25.93
-</t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="n"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>HYLB</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38.02
-</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>IAT</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
-</t>
-        </is>
-      </c>
+      <c r="D15" s="3" t="n"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>IVV</t>
-        </is>
-      </c>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">431.92
-</t>
-        </is>
-      </c>
+      <c r="D16" s="3" t="n"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>IWM</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199.49
-</t>
-        </is>
-      </c>
+      <c r="D17" s="3" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>IXUS</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">65.54
-</t>
-        </is>
-      </c>
+      <c r="D18" s="3" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>LYFE</t>
-        </is>
-      </c>
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31.4019
-</t>
-        </is>
-      </c>
+      <c r="D19" s="3" t="n"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>ONLN</t>
-        </is>
-      </c>
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">46.42
-</t>
-        </is>
-      </c>
+      <c r="D20" s="3" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>PAVE</t>
-        </is>
-      </c>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
-</t>
-        </is>
-      </c>
+      <c r="D21" s="3" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>QQQ</t>
-        </is>
-      </c>
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">341.49
-</t>
-        </is>
-      </c>
+      <c r="D22" s="3" t="n"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>SKYY</t>
-        </is>
-      </c>
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85.87
-</t>
-        </is>
-      </c>
+      <c r="D23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>SMH</t>
-        </is>
-      </c>
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
-</t>
-        </is>
-      </c>
+      <c r="D24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>SRVR</t>
-        </is>
-      </c>
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">36.54
-</t>
-        </is>
-      </c>
+      <c r="D25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>STIP</t>
-        </is>
-      </c>
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106.3
-</t>
-        </is>
-      </c>
+      <c r="D26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>UBER</t>
-        </is>
-      </c>
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="n"/>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33.89
-</t>
-        </is>
-      </c>
+      <c r="D27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>UPST</t>
-        </is>
-      </c>
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">145.4
-</t>
-        </is>
-      </c>
+      <c r="D28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>USHY</t>
-        </is>
-      </c>
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
-</t>
-        </is>
-      </c>
+      <c r="D29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>USIG</t>
-        </is>
-      </c>
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
-</t>
-        </is>
-      </c>
+      <c r="D30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>VCIT</t>
-        </is>
-      </c>
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">89.19
-</t>
-        </is>
-      </c>
+      <c r="D31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>VCSH</t>
-        </is>
-      </c>
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">79.7
-</t>
-        </is>
-      </c>
+      <c r="D32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>VGSH</t>
-        </is>
-      </c>
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60.23
-</t>
-        </is>
-      </c>
+      <c r="D33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>VMBS</t>
-        </is>
-      </c>
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">51.64
-</t>
-        </is>
-      </c>
+      <c r="D34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>VNLA</t>
-        </is>
-      </c>
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">49.25
-</t>
-        </is>
-      </c>
+      <c r="D35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>VTV</t>
-        </is>
-      </c>
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">141.69
-</t>
-        </is>
-      </c>
+      <c r="D36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>2023-3-1</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>XTN</t>
-        </is>
-      </c>
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85.82
-</t>
-        </is>
-      </c>
+      <c r="D37" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,208 +493,1612 @@
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>EPP</t>
+        </is>
+      </c>
       <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46.03
+</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>EWC</t>
+        </is>
+      </c>
       <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37.7
+</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>EWD</t>
+        </is>
+      </c>
       <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.36
+</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>EWJ</t>
+        </is>
+      </c>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62.08
+</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>EWL</t>
+        </is>
+      </c>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47.42
+</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>EWU</t>
+        </is>
+      </c>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.01
+</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>EZU</t>
+        </is>
+      </c>
       <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42.15
+</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>FUTY</t>
+        </is>
+      </c>
       <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43.54
+</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>GIBIX</t>
+        </is>
+      </c>
       <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>GOVT</t>
+        </is>
+      </c>
       <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25.93
+</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>HYLB</t>
+        </is>
+      </c>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38.02
+</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>IAT</t>
+        </is>
+      </c>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>IVV</t>
+        </is>
+      </c>
       <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">431.92
+</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
       <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199.49
+</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>IXUS</t>
+        </is>
+      </c>
       <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65.54
+</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>LYFE</t>
+        </is>
+      </c>
       <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31.4019
+</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ONLN</t>
+        </is>
+      </c>
       <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46.42
+</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PAVE</t>
+        </is>
+      </c>
       <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
       <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">341.49
+</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SKYY</t>
+        </is>
+      </c>
       <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.87
+</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>SMH</t>
+        </is>
+      </c>
       <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SRVR</t>
+        </is>
+      </c>
       <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.54
+</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>STIP</t>
+        </is>
+      </c>
       <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106.3
+</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
       <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.89
+</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>UPST</t>
+        </is>
+      </c>
       <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.4
+</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>USHY</t>
+        </is>
+      </c>
       <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>USIG</t>
+        </is>
+      </c>
       <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>VCIT</t>
+        </is>
+      </c>
       <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.19
+</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>VCSH</t>
+        </is>
+      </c>
       <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79.7
+</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>VGSH</t>
+        </is>
+      </c>
       <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60.23
+</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>VMBS</t>
+        </is>
+      </c>
       <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51.64
+</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>VNLA</t>
+        </is>
+      </c>
       <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49.25
+</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>VTV</t>
+        </is>
+      </c>
       <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">141.69
+</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>XTN</t>
+        </is>
+      </c>
       <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.82
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91.41
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.375
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46.03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37.7
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.36
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62.08
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47.42
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42.15
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43.54
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25.93
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38.02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">431.92
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199.49
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65.54
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31.4019
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46.42
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">341.49
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.87
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.54
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106.3
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.89
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.4
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.19
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79.7
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51.64
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49.25
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">141.69
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.82
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91.41
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.375
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46.03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37.7
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.36
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62.08
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47.42
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42.15
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43.54
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25.93
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38.02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">431.92
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199.49
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65.54
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31.4019
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46.42
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">341.49
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.87
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.54
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106.3
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.89
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.4
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error,"Internal server error, please try again later, if error persists contact support@marketdata.app"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.19
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79.7
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51.64
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49.25
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">141.69
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-3-1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.82
+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,18 +438,36 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>2023-3-2</t>
+          <t>2023-3-11</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>BIL</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">91.41
+          <t xml:space="preserve">130.31
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-3-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82.26
 </t>
         </is>
       </c>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -438,7 +438,7 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>2023-3-11</t>
+          <t>2023-3-12</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -449,7 +449,7 @@
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">130.31
+          <t xml:space="preserve">127.58
 </t>
         </is>
       </c>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -47,10 +47,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -436,38 +436,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>2023-3-12</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">127.58
 </t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-3-11</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2023-3-12</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">82.26
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81.32
 </t>
         </is>
       </c>

--- a/ticker_book.xlsx
+++ b/ticker_book.xlsx
@@ -438,18 +438,18 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2023-3-12</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">127.58
+          <t xml:space="preserve">79.29
 </t>
         </is>
       </c>
@@ -457,18 +457,18 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2023-3-12</t>
+          <t>2023-3-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">81.32
+          <t xml:space="preserve">131.93
 </t>
         </is>
       </c>
